--- a/QuantLibXL/Data2/XLS/GBP/GBP_MainChecks.xlsx
+++ b/QuantLibXL/Data2/XLS/GBP/GBP_MainChecks.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfondi\quantlib\QuantLibXL\Data2\XLS\GBP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="9585" yWindow="-15" windowWidth="9630" windowHeight="12015"/>
   </bookViews>
@@ -19,12 +24,12 @@
     <definedName name="TenYearsBondFutures">MainChecks!$C$4:$C$6</definedName>
     <definedName name="Trigger">MainChecks!$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>ObjectID</t>
   </si>
@@ -180,9 +185,6 @@
   </si>
   <si>
     <t>PREA</t>
-  </si>
-  <si>
-    <t>FSSM5</t>
   </si>
   <si>
     <t>JGBc1</t>
@@ -204,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
@@ -213,7 +215,6 @@
     <numFmt numFmtId="169" formatCode="0.0000"/>
     <numFmt numFmtId="170" formatCode="0.000000000"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ dd\-mmm\-yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="172" formatCode="dd\-mmm\-yy"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -673,9 +674,9 @@
     <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -708,7 +709,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,47 +802,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="pldatasource.rdatartdserver">
-      <tp t="s">
-        <v>Updated at 11:26:11</v>
-        <stp/>
-        <stp>{4C473E17-AB62-4D1E-A30E-FEEB42EFAF5F}</stp>
-        <tr r="Q6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:22:03</v>
-        <stp/>
-        <stp>{E2282FA0-CD62-4B95-A250-73EDB77D9EFC}</stp>
-        <tr r="Q7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:26:57</v>
-        <stp/>
-        <stp>{DFAF9D8F-904D-46C0-9ED9-350D957991D8}</stp>
-        <tr r="P5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:24:00</v>
-        <stp/>
-        <stp>{6E9F85D6-AAEC-43B6-98F0-E929F336C91D}</stp>
-        <tr r="Q5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:26:34</v>
-        <stp/>
-        <stp>{0B383ECD-58AA-4CC9-9CBA-60D0C3D0D148}</stp>
-        <tr r="P7" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,7 +845,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -888,6 +853,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -921,7 +900,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -929,6 +908,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -982,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,7 +1010,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1494,13 +1487,13 @@
       <c r="O5" s="28">
         <v>118.81</v>
       </c>
-      <c r="P5" s="28" t="str">
-        <f>_xll.RData(K5,{"BID","ASK"},,"FRQ:1S",,N5)</f>
-        <v>Updated at 11:26:57</v>
-      </c>
-      <c r="Q5" s="29" t="str">
-        <f>_xll.RData(K5,"EXPIR_DATE",,"FRQ:1S",,L5)</f>
-        <v>Updated at 11:24:00</v>
+      <c r="P5" s="28" t="e">
+        <f ca="1">_xll.RData(K5,{"BID","ASK"},,"FRQ:1S",,N5)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q5" s="29" t="e">
+        <f ca="1">_xll.RData(K5,"EXPIR_DATE",,"FRQ:1S",,L5)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>13</v>
@@ -1509,9 +1502,9 @@
       <c r="T5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U5" s="11" t="str">
-        <f>_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
-        <v>1_52 / 1.5.0 / 1.5</v>
+      <c r="U5" s="11" t="e">
+        <f ca="1">_xll.ohBoostVersion(Trigger)&amp;" / "&amp;_xll.ohVersion(Trigger)&amp;" / "&amp;_xll.qlVersion(Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -1556,8 +1549,9 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="20"/>
-      <c r="K6" s="23" t="s">
-        <v>52</v>
+      <c r="K6" s="23" t="e">
+        <f ca="1">D14</f>
+        <v>#NAME?</v>
       </c>
       <c r="L6" s="24">
         <v>42172</v>
@@ -1568,9 +1562,9 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="31" t="str">
-        <f>_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
-        <v>Updated at 11:26:11</v>
+      <c r="Q6" s="31" t="e">
+        <f ca="1">_xll.RData(K6,{"EXPIR_DATE","LAST"},,"FRQ:1S",,L6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>13</v>
@@ -1579,9 +1573,9 @@
       <c r="T6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="11">
-        <f>_xll.ohRepositoryObjectCount(Trigger)</f>
-        <v>1599</v>
+      <c r="U6" s="11" t="e">
+        <f ca="1">_xll.ohRepositoryObjectCount(Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1643,13 +1637,13 @@
       <c r="O7" s="30">
         <v>2.0270000000000001</v>
       </c>
-      <c r="P7" s="30" t="str">
-        <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
-        <v>Updated at 11:26:34</v>
-      </c>
-      <c r="Q7" s="31" t="str">
-        <f>_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
-        <v>Updated at 11:22:03</v>
+      <c r="P7" s="30" t="e">
+        <f ca="1">_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),{"BID","ASK"},,"FRQ:1S",,N7)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="Q7" s="31" t="e">
+        <f ca="1">_xll.RData(K7&amp;"="&amp;VLOOKUP(Currency,FuturesTable,7,0),"VALUE_DT1",,"FRQ:1S",,L7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>13</v>
@@ -1681,7 +1675,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>44</v>
@@ -1806,19 +1800,19 @@
         <v>16</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="H10" s="53" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="7"/>
@@ -1826,20 +1820,20 @@
         <f>PROPER(Currency)&amp;VLOOKUP(Currency,FuturesTable,8,0)&amp;VLOOKUP(Currency,FuturesTable,2,0)</f>
         <v>GbpLibor6M</v>
       </c>
-      <c r="L10" s="22">
-        <f>_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>41982</v>
-      </c>
-      <c r="M10" s="32">
-        <f>_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
-        <v>6.7843999999999995E-3</v>
+      <c r="L10" s="22" t="e">
+        <f ca="1">_xll.qlLastFixingQuoteReferenceDate(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M10" s="32" t="e">
+        <f ca="1">_xll.qlQuoteValue(FirstIndex&amp;"LastFixing_Quote",Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="32"/>
-      <c r="Q10" s="34" t="str">
-        <f>IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
-        <v/>
+      <c r="Q10" s="34" t="e">
+        <f ca="1">IF(AND(ISERROR(L10),ISERROR(M10)),_xll.ohRangeRetrieveError(L10)&amp;" "&amp;_xll.ohRangeRetrieveError(M10),IF(ISERROR(L10),_xll.ohRangeRetrieveError(L10),_xll.ohRangeRetrieveError(M10)))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R10" s="8" t="s">
         <v>13</v>
@@ -1874,7 +1868,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>42</v>
@@ -1883,7 +1877,7 @@
         <v>43</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>37</v>
@@ -1894,20 +1888,20 @@
         <f>UPPER(Currency)&amp;"STD"</f>
         <v>GBPSTD</v>
       </c>
-      <c r="L11" s="24">
-        <f>_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
-        <v>41983</v>
-      </c>
-      <c r="M11" s="25">
-        <f>_xll.qlYieldTSDiscount(K11,L11)</f>
-        <v>1</v>
+      <c r="L11" s="24" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K11,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="25" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K11,L11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
-      <c r="Q11" s="35" t="str">
-        <f>IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
-        <v/>
+      <c r="Q11" s="35" t="e">
+        <f ca="1">IF(ISERROR(L11),_xll.ohRangeRetrieveError(L11),_xll.ohRangeRetrieveError(M11))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>13</v>
@@ -1956,20 +1950,20 @@
         <f>UPPER(Currency)&amp;"ON"</f>
         <v>GBPON</v>
       </c>
-      <c r="L12" s="24">
-        <f>_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
-        <v>41983</v>
-      </c>
-      <c r="M12" s="25">
-        <f>_xll.qlYieldTSDiscount(K12,L12)</f>
-        <v>1</v>
+      <c r="L12" s="24" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K12,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="25" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K12,L12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
-      <c r="Q12" s="35" t="str">
-        <f>IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
-        <v/>
+      <c r="Q12" s="35" t="e">
+        <f ca="1">IF(ISERROR(L12),_xll.ohRangeRetrieveError(L12),_xll.ohRangeRetrieveError(M12))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R12" s="8" t="s">
         <v>13</v>
@@ -2008,20 +2002,20 @@
         <f>UPPER(Currency)&amp;"1M"</f>
         <v>GBP1M</v>
       </c>
-      <c r="L13" s="24">
-        <f>_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
-        <v>41983</v>
-      </c>
-      <c r="M13" s="25">
-        <f>_xll.qlYieldTSDiscount(K13,L13)</f>
-        <v>1</v>
+      <c r="L13" s="24" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K13,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M13" s="25" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K13,L13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
-      <c r="Q13" s="36" t="str">
-        <f>IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
-        <v/>
+      <c r="Q13" s="36" t="e">
+        <f ca="1">IF(ISERROR(L13),_xll.ohRangeRetrieveError(L13),_xll.ohRangeRetrieveError(M13))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R13" s="8" t="s">
         <v>13</v>
@@ -2050,13 +2044,13 @@
       <c r="B14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C14" s="37">
-        <f t="array" ref="C14:C17">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
-        <v>41990</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f t="array" ref="D14:D17">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
-        <v>FSSZ4</v>
+      <c r="C14" s="37" t="e">
+        <f t="array" aca="1" ref="C14:C17" ca="1">_xll.qlIMMNextDates(_xll.qlSettingsEvaluationDate(Trigger)-1,B14:B17)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="6" t="e">
+        <f t="array" aca="1" ref="D14:D17" ca="1">VLOOKUP(Currency,FuturesTable,4,0)&amp;_xll.qlIMMcode(FuturesDates)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2068,20 +2062,20 @@
         <f>UPPER(Currency)&amp;"3M"</f>
         <v>GBP3M</v>
       </c>
-      <c r="L14" s="24">
-        <f>_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
-        <v>41983</v>
-      </c>
-      <c r="M14" s="25">
-        <f>_xll.qlYieldTSDiscount(K14,L14)</f>
-        <v>1</v>
+      <c r="L14" s="24" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K14,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M14" s="25" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K14,L14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
-      <c r="Q14" s="36" t="str">
-        <f>IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
-        <v/>
+      <c r="Q14" s="36" t="e">
+        <f ca="1">IF(ISERROR(L14),_xll.ohRangeRetrieveError(L14),_xll.ohRangeRetrieveError(M14))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R14" s="8" t="s">
         <v>13</v>
@@ -2110,11 +2104,13 @@
       <c r="B15" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="38">
-        <v>42081</v>
-      </c>
-      <c r="D15" s="8" t="str">
-        <v>FSSH5</v>
+      <c r="C15" s="38" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2126,20 +2122,20 @@
         <f>UPPER(Currency)&amp;"6M"</f>
         <v>GBP6M</v>
       </c>
-      <c r="L15" s="24">
-        <f>_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
-        <v>41983</v>
-      </c>
-      <c r="M15" s="25">
-        <f>_xll.qlYieldTSDiscount(K15,L15)</f>
-        <v>1</v>
+      <c r="L15" s="24" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K15,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M15" s="25" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K15,L15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="25"/>
-      <c r="Q15" s="36" t="str">
-        <f>IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
-        <v/>
+      <c r="Q15" s="36" t="e">
+        <f ca="1">IF(ISERROR(L15),_xll.ohRangeRetrieveError(L15),_xll.ohRangeRetrieveError(M15))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>13</v>
@@ -2168,11 +2164,13 @@
       <c r="B16" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="C16" s="38">
-        <v>42172</v>
-      </c>
-      <c r="D16" s="8" t="str">
-        <v>FSSM5</v>
+      <c r="C16" s="38" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="8" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2184,20 +2182,20 @@
         <f>UPPER(Currency)&amp;"1Y"</f>
         <v>GBP1Y</v>
       </c>
-      <c r="L16" s="44">
-        <f>_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
-        <v>41983</v>
-      </c>
-      <c r="M16" s="45">
-        <f>_xll.qlYieldTSDiscount(K16,L16)</f>
-        <v>1</v>
+      <c r="L16" s="44" t="e">
+        <f ca="1">_xll.qlTermStructureReferenceDate(K16,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M16" s="45" t="e">
+        <f ca="1">_xll.qlYieldTSDiscount(K16,L16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="45"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="46" t="str">
-        <f>IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
-        <v/>
+      <c r="Q16" s="46" t="e">
+        <f ca="1">IF(ISERROR(L16),_xll.ohRangeRetrieveError(L16),_xll.ohRangeRetrieveError(M16))</f>
+        <v>#NAME?</v>
       </c>
       <c r="R16" s="8" t="s">
         <v>13</v>
@@ -2226,11 +2224,13 @@
       <c r="B17" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C17" s="39">
-        <v>42263</v>
-      </c>
-      <c r="D17" s="10" t="str">
-        <v>FSSU5</v>
+      <c r="C17" s="39" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="10" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -5435,12 +5435,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4">
       <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH,HKD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6">
-      <formula1>IMMFutures</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5451,7 +5448,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
+        <control shapeId="1026" r:id="rId4" name="CommandButton2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5471,12 +5468,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
+        <control shapeId="1026" r:id="rId4" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="CommandButton2">
+        <control shapeId="1025" r:id="rId6" name="CommandButton1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
@@ -5496,7 +5493,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="1025" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
